--- a/biology/Zoologie/Échenilleur_à_masque_noir/Échenilleur_à_masque_noir.xlsx
+++ b/biology/Zoologie/Échenilleur_à_masque_noir/Échenilleur_à_masque_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_masque_noir</t>
+          <t>Échenilleur_à_masque_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coracina novaehollandiae
 L'Échenilleur à masque noir (Coracina novaehollandiae) est une espèce d'oiseaux de la famille des Campephagidae. C'est un oiseau omnivore commun en Australie, Nouvelle-Guinée et aux îles Salomon. il est protégé en Australie par le National Parks and Wildlife Act, 1974.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_masque_noir</t>
+          <t>Échenilleur_à_masque_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit par le naturaliste allemand Johann Friedrich Gmelin en 1789. Le peuple aborigène Yinjibarndi au centre et à l'ouest de la région de Pilbara l'appelait Julgira; il leur coupait les ailes et les utilisait comme animaux de compagnie.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_masque_noir</t>
+          <t>Échenilleur_à_masque_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oiseaux adultes ont une face et une gorge noires, un plumage gris, le ventre blanc et le bec légèrement crochu. Leur taille varie entre 32 et 34 cm. Ils sont lents, discrets, avec un cri strident "creearck"
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_masque_noir</t>
+          <t>Échenilleur_à_masque_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur régime alimentaire se compose d'insectes, de larves, de chenilles ou autres invertébrés. Ils peuvent les capturer en vol ou en les cherchant dans le feuillage. En plus, ils consomment des fruits et des graines.
 La saison de reproduction va principalement d'août à février. Les deux partenaires construisent un nid plutôt petit. Les oisillons quittent le nid environ trois semaines après l'éclosion. ils ressemblent aux adultes, sauf le masque facial noir qui est réduit à une bande au niveau de l'œil.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_masque_noir</t>
+          <t>Échenilleur_à_masque_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Alan P. Peterson, cet oiseau est représenté par trois sous-espèces :
 Coracina novaehollandiae melanops (Latham) 1802
